--- a/DDAf_2022_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -99,7 +99,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -141,13 +141,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -165,7 +165,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -234,7 +234,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -246,7 +246,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -348,7 +348,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -366,7 +366,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -384,7 +384,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="167">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="166">
   <si>
     <t>Tableau 28 : Gouvernance d'entreprise</t>
   </si>
@@ -1280,38 +1277,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="12">
         <v>100</v>
@@ -1320,15 +1315,15 @@
         <v>16</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="15">
         <v>9</v>
@@ -1337,15 +1332,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>13</v>
       </c>
       <c r="C5" s="19">
         <v>16</v>
@@ -1359,10 +1354,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>14</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>15</v>
       </c>
       <c r="C6" s="19">
         <v>2</v>
@@ -1371,15 +1366,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="19">
         <v>33</v>
@@ -1388,15 +1383,15 @@
         <v>4</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="19">
         <v>38</v>
@@ -1405,15 +1400,15 @@
         <v>10</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>21</v>
       </c>
       <c r="C9" s="19">
         <v>29</v>
@@ -1422,15 +1417,15 @@
         <v>14</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="C10" s="19">
         <v>3399</v>
@@ -1444,10 +1439,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>25</v>
       </c>
       <c r="C11" s="15">
         <v>24</v>
@@ -1456,15 +1451,15 @@
         <v>10</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>27</v>
       </c>
       <c r="C12" s="22">
         <v>6</v>
@@ -1473,15 +1468,15 @@
         <v>9</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>28</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>29</v>
       </c>
       <c r="C13" s="26">
         <v>3656</v>
@@ -1495,10 +1490,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="C14" s="19">
         <v>7</v>
@@ -1507,15 +1502,15 @@
         <v>3</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>32</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>33</v>
       </c>
       <c r="C15" s="19">
         <v>70</v>
@@ -1524,32 +1519,32 @@
         <v>16</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="C16" s="19">
         <v>1</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>37</v>
       </c>
       <c r="C17" s="12">
         <v>6</v>
@@ -1558,15 +1553,15 @@
         <v>2</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>38</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>39</v>
       </c>
       <c r="C18" s="12">
         <v>14</v>
@@ -1575,15 +1570,15 @@
         <v>2</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>41</v>
       </c>
       <c r="C19" s="15">
         <v>26</v>
@@ -1592,15 +1587,15 @@
         <v>8</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>42</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>43</v>
       </c>
       <c r="C20" s="12">
         <v>6</v>
@@ -1609,15 +1604,15 @@
         <v>1</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>44</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>45</v>
       </c>
       <c r="C21" s="12">
         <v>28</v>
@@ -1631,27 +1626,27 @@
     </row>
     <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>47</v>
-      </c>
       <c r="C22" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="26">
         <v>158</v>
@@ -1665,10 +1660,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="C24" s="19">
         <v>4</v>
@@ -1677,15 +1672,15 @@
         <v>1</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>52</v>
       </c>
       <c r="C25" s="19">
         <v>4</v>
@@ -1694,32 +1689,32 @@
         <v>2</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="C26" s="19">
         <v>1</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="C27" s="19">
         <v>43</v>
@@ -1728,15 +1723,15 @@
         <v>7</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="C28" s="19">
         <v>456</v>
@@ -1750,10 +1745,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="C29" s="19">
         <v>71</v>
@@ -1762,15 +1757,15 @@
         <v>10</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>61</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>62</v>
       </c>
       <c r="C30" s="19">
         <v>178</v>
@@ -1784,10 +1779,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="C31" s="19">
         <v>11</v>
@@ -1796,15 +1791,15 @@
         <v>5</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="C32" s="19">
         <v>6</v>
@@ -1813,15 +1808,15 @@
         <v>6</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="C33" s="19">
         <v>5</v>
@@ -1830,32 +1825,32 @@
         <v>3</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>70</v>
-      </c>
       <c r="C34" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>71</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>72</v>
       </c>
       <c r="C35" s="19">
         <v>69</v>
@@ -1864,15 +1859,15 @@
         <v>23</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="C36" s="19">
         <v>86</v>
@@ -1881,15 +1876,15 @@
         <v>31</v>
       </c>
       <c r="E36" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>75</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>76</v>
       </c>
       <c r="C37" s="19">
         <v>125</v>
@@ -1898,15 +1893,15 @@
         <v>40</v>
       </c>
       <c r="E37" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="26">
         <v>1059</v>
@@ -1920,10 +1915,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>78</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>79</v>
       </c>
       <c r="C39" s="12">
         <v>477</v>
@@ -1937,10 +1932,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>80</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>81</v>
       </c>
       <c r="C40" s="19">
         <v>1839</v>
@@ -1954,10 +1949,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>82</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>83</v>
       </c>
       <c r="C41" s="12">
         <v>47</v>
@@ -1966,15 +1961,15 @@
         <v>9</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>84</v>
-      </c>
-      <c r="B42" s="29" t="s">
-        <v>85</v>
       </c>
       <c r="C42" s="12">
         <v>4</v>
@@ -1983,15 +1978,15 @@
         <v>3</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>87</v>
       </c>
       <c r="C43" s="19">
         <v>1099</v>
@@ -2005,10 +2000,10 @@
     </row>
     <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>89</v>
       </c>
       <c r="C44" s="19">
         <v>1077</v>
@@ -2022,10 +2017,10 @@
     </row>
     <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" s="26">
         <v>4543</v>
@@ -2039,10 +2034,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="C46" s="19">
         <v>40</v>
@@ -2051,15 +2046,15 @@
         <v>5</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="C47" s="19">
         <v>29</v>
@@ -2068,15 +2063,15 @@
         <v>5</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>95</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>96</v>
       </c>
       <c r="C48" s="19">
         <v>32</v>
@@ -2085,15 +2080,15 @@
         <v>2</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="C49" s="19">
         <v>227</v>
@@ -2102,32 +2097,32 @@
         <v>36</v>
       </c>
       <c r="E49" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>99</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>100</v>
       </c>
       <c r="C50" s="19">
         <v>1</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="C51" s="15">
         <v>110</v>
@@ -2136,15 +2131,15 @@
         <v>62</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="C52" s="19">
         <v>10</v>
@@ -2153,32 +2148,32 @@
         <v>4</v>
       </c>
       <c r="E52" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="C53" s="19">
         <v>2</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>107</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>108</v>
       </c>
       <c r="C54" s="19">
         <v>8</v>
@@ -2187,15 +2182,15 @@
         <v>5</v>
       </c>
       <c r="E54" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>109</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>110</v>
       </c>
       <c r="C55" s="19">
         <v>19</v>
@@ -2204,15 +2199,15 @@
         <v>11</v>
       </c>
       <c r="E55" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>111</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>112</v>
       </c>
       <c r="C56" s="19">
         <v>8</v>
@@ -2221,15 +2216,15 @@
         <v>4</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>113</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>114</v>
       </c>
       <c r="C57" s="12">
         <v>368</v>
@@ -2238,15 +2233,15 @@
         <v>77</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>115</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>116</v>
       </c>
       <c r="C58" s="19">
         <v>74</v>
@@ -2260,27 +2255,27 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>118</v>
       </c>
       <c r="C59" s="19">
         <v>1</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>120</v>
       </c>
       <c r="C60" s="15">
         <v>25</v>
@@ -2289,13 +2284,13 @@
         <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C61" s="26">
         <v>954</v>
@@ -2310,7 +2305,7 @@
     <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C62" s="32">
         <v>10370</v>
@@ -2325,7 +2320,7 @@
     <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C63" s="32">
         <v>895429</v>
@@ -2340,7 +2335,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C64" s="36">
         <v>50279</v>
@@ -2355,7 +2350,7 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C65" s="39">
         <v>397666</v>
@@ -2370,7 +2365,7 @@
     <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C66" s="42">
         <v>905799</v>
@@ -2385,7 +2380,7 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C67" s="39">
         <v>4048</v>
@@ -2400,7 +2395,7 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C68" s="39">
         <v>5070</v>
@@ -2415,7 +2410,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C69" s="39">
         <v>685</v>
@@ -2430,7 +2425,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" s="39">
         <v>269</v>
@@ -2445,7 +2440,7 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C71" s="39">
         <v>954</v>
@@ -2460,7 +2455,7 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C72" s="39">
         <v>703</v>
@@ -2475,7 +2470,7 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C73" s="39">
         <v>4027</v>
@@ -2490,7 +2485,7 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C74" s="39">
         <v>2704</v>
@@ -2505,7 +2500,7 @@
     <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C75" s="42">
         <v>178</v>
@@ -2514,13 +2509,13 @@
         <v>29</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C76" s="39">
         <v>37064</v>
@@ -2535,7 +2530,7 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C77" s="39">
         <v>41575</v>
@@ -2550,7 +2545,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C78" s="39">
         <v>285230</v>
@@ -2565,7 +2560,7 @@
     <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79" s="42">
         <v>417663</v>
@@ -2580,7 +2575,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C80" s="39">
         <v>1050</v>
@@ -2595,7 +2590,7 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C81" s="39">
         <v>16040</v>
@@ -2610,7 +2605,7 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C82" s="39">
         <v>9320</v>
@@ -2625,7 +2620,7 @@
     <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C83" s="42">
         <v>879389</v>
@@ -2640,7 +2635,7 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" s="39">
         <v>539</v>
@@ -2649,13 +2644,13 @@
         <v>154</v>
       </c>
       <c r="E84" s="40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C85" s="39">
         <v>122</v>
@@ -2670,7 +2665,7 @@
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C86" s="39">
         <v>6129</v>
@@ -2685,7 +2680,7 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" s="39">
         <v>54991</v>
@@ -2700,7 +2695,7 @@
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C88" s="39">
         <v>3696</v>
@@ -2715,7 +2710,7 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C89" s="39">
         <v>431801</v>
@@ -2730,7 +2725,7 @@
     <row r="90" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C90" s="42">
         <v>408448</v>
@@ -2745,7 +2740,7 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91" s="39">
         <v>877</v>
@@ -2760,7 +2755,7 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C92" s="39">
         <v>974</v>
@@ -2775,7 +2770,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C93" s="39">
         <v>222</v>
@@ -2790,7 +2785,7 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C94" s="39">
         <v>4472</v>
@@ -2805,7 +2800,7 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C95" s="39">
         <v>339</v>
@@ -2820,7 +2815,7 @@
     <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C96" s="42">
         <v>2624</v>
@@ -2835,7 +2830,7 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C97" s="39">
         <v>1929</v>
@@ -2850,7 +2845,7 @@
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C98" s="39">
         <v>5107</v>
@@ -2865,7 +2860,7 @@
     <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C99" s="42">
         <v>347</v>
@@ -2886,7 +2881,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -2895,7 +2890,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -2904,7 +2899,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -2913,7 +2908,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -2922,7 +2917,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -2943,7 +2938,7 @@
     </row>
     <row r="108" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -2957,7 +2952,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -2965,7 +2960,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -2979,7 +2974,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -2987,7 +2982,7 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -2995,7 +2990,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="167">
   <si>
     <t>Tableau 28 : Gouvernance d'entreprise</t>
   </si>
@@ -474,19 +474,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -501,7 +504,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Base de données des coûts commerciaux CESAP-Banque mondiale (mis à jour 01/07/2021).</t>
@@ -2758,7 +2761,7 @@
         <v>149</v>
       </c>
       <c r="C92" s="39">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D92" s="39">
         <v>280</v>
@@ -2815,7 +2818,7 @@
     <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C96" s="42">
         <v>2624</v>
@@ -2830,7 +2833,7 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C97" s="39">
         <v>1929</v>
@@ -2845,7 +2848,7 @@
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C98" s="39">
         <v>5107</v>
@@ -2860,7 +2863,7 @@
     <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C99" s="42">
         <v>347</v>
@@ -2881,7 +2884,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -2890,7 +2893,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -2899,7 +2902,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -2908,7 +2911,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -2917,7 +2920,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -2938,7 +2941,7 @@
     </row>
     <row r="108" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -2952,7 +2955,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -2960,7 +2963,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -2974,7 +2977,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -2982,7 +2985,7 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab28.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab28.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab28" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
     <t>Source : Base de données des coûts commerciaux CESAP-Banque mondiale (mis à jour 01/07/2021).</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -2993,7 +2993,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
